--- a/docentes/Salazar Rivas Eduardo - Estadisticos 20242.xlsx
+++ b/docentes/Salazar Rivas Eduardo - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>Mat</t>
   </si>
@@ -71,6 +71,24 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>BRYAN</t>
+  </si>
+  <si>
+    <t>JESUS ENRIQUE</t>
   </si>
 </sst>
 </file>
@@ -591,16 +609,19 @@
         <v>17</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +725,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -737,6 +758,52 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>24330051920274</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>24330051920369</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Salazar Rivas Eduardo - Estadisticos 20242.xlsx
+++ b/docentes/Salazar Rivas Eduardo - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>Mat</t>
   </si>
@@ -71,24 +71,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>BRYAN</t>
-  </si>
-  <si>
-    <t>JESUS ENRIQUE</t>
   </si>
 </sst>
 </file>
@@ -492,10 +474,10 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>16</v>
@@ -504,7 +486,7 @@
         <v>69.56999999999999</v>
       </c>
       <c r="H2">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -586,16 +568,19 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>86.95999999999999</v>
+      </c>
+      <c r="H2">
+        <v>7.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -677,19 +662,19 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>69.56999999999999</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="H2">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -725,7 +710,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -758,52 +743,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>24330051920274</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>24330051920369</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
